--- a/Covad/jose.xlsx
+++ b/Covad/jose.xlsx
@@ -2961,7 +2961,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2969,10 +2969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J375"/>
+  <dimension ref="A1:J305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="J297" sqref="J297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11401,216 +11401,6 @@
       <c r="J305" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E306" s="10"/>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E307" s="10"/>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E308" s="10"/>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E309" s="10"/>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E310" s="10"/>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E311" s="10"/>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E312" s="10"/>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E313" s="10"/>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E314" s="3"/>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E315" s="3"/>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E316" s="3"/>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E317" s="3"/>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E318" s="3"/>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E319" s="3"/>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E320" s="3"/>
-    </row>
-    <row r="321" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E321" s="3"/>
-    </row>
-    <row r="322" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E322" s="3"/>
-    </row>
-    <row r="323" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E323" s="3"/>
-    </row>
-    <row r="324" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E324" s="3"/>
-    </row>
-    <row r="325" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E325" s="3"/>
-    </row>
-    <row r="326" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E326" s="3"/>
-    </row>
-    <row r="327" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E327" s="3"/>
-    </row>
-    <row r="328" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E328" s="3"/>
-    </row>
-    <row r="329" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E329" s="3"/>
-    </row>
-    <row r="330" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E330" s="3"/>
-    </row>
-    <row r="331" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E331" s="3"/>
-    </row>
-    <row r="332" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E332" s="3"/>
-    </row>
-    <row r="333" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E333" s="3"/>
-    </row>
-    <row r="334" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E334" s="3"/>
-    </row>
-    <row r="335" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E335" s="3"/>
-    </row>
-    <row r="336" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E336" s="3"/>
-    </row>
-    <row r="337" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E337" s="3"/>
-    </row>
-    <row r="338" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E338" s="3"/>
-    </row>
-    <row r="339" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E339" s="3"/>
-    </row>
-    <row r="340" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E340" s="3"/>
-    </row>
-    <row r="341" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E341" s="3"/>
-    </row>
-    <row r="342" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E342" s="3"/>
-    </row>
-    <row r="343" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E343" s="3"/>
-    </row>
-    <row r="344" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E344" s="3"/>
-    </row>
-    <row r="345" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E345" s="3"/>
-    </row>
-    <row r="346" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E346" s="3"/>
-    </row>
-    <row r="347" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E347" s="3"/>
-    </row>
-    <row r="348" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E348" s="3"/>
-    </row>
-    <row r="349" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E349" s="3"/>
-    </row>
-    <row r="350" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E350" s="3"/>
-    </row>
-    <row r="351" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E351" s="3"/>
-    </row>
-    <row r="352" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E352" s="3"/>
-    </row>
-    <row r="353" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E353" s="3"/>
-    </row>
-    <row r="354" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E354" s="3"/>
-    </row>
-    <row r="355" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E355" s="3"/>
-    </row>
-    <row r="356" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E356" s="3"/>
-    </row>
-    <row r="357" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E357" s="3"/>
-    </row>
-    <row r="358" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E358" s="3"/>
-    </row>
-    <row r="359" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E359" s="3"/>
-    </row>
-    <row r="360" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E360" s="3"/>
-    </row>
-    <row r="361" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E361" s="3"/>
-    </row>
-    <row r="362" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E362" s="3"/>
-    </row>
-    <row r="363" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E363" s="3"/>
-    </row>
-    <row r="364" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E364" s="3"/>
-    </row>
-    <row r="365" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E365" s="3"/>
-    </row>
-    <row r="366" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E366" s="3"/>
-    </row>
-    <row r="367" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E367" s="3"/>
-    </row>
-    <row r="368" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E368" s="3"/>
-    </row>
-    <row r="369" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E369" s="3"/>
-    </row>
-    <row r="370" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E370" s="3"/>
-    </row>
-    <row r="371" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E371" s="3"/>
-    </row>
-    <row r="372" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E372" s="3"/>
-    </row>
-    <row r="373" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E373" s="3"/>
-    </row>
-    <row r="374" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E374" s="3"/>
-    </row>
-    <row r="375" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E375" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D80">
